--- a/數B第一冊單元分類.xlsx
+++ b/數B第一冊單元分類.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\math-master\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\math-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="14091" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32910" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="skills_info" sheetId="1" r:id="rId1"/>
@@ -711,20 +711,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -733,7 +754,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -742,6 +763,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1025,33 +1052,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.23046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="98.61328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="159.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="98.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="159.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1064,20 +1091,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F2">
@@ -1090,20 +1117,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F3">
@@ -1116,20 +1143,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F4">
@@ -1142,20 +1169,20 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F5">
@@ -1168,20 +1195,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F6">
@@ -1194,20 +1221,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F7">
@@ -1220,20 +1247,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F8">
@@ -1246,20 +1273,20 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F9">
@@ -1272,20 +1299,20 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F10">
@@ -1298,20 +1325,20 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F11">
@@ -1324,20 +1351,20 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F12">
@@ -1350,20 +1377,20 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F13">
@@ -1376,20 +1403,20 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F14">
@@ -1402,20 +1429,20 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F15">
@@ -1428,20 +1455,20 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>78</v>
       </c>
       <c r="F16">
@@ -1454,20 +1481,20 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>83</v>
       </c>
       <c r="F17">
@@ -1480,20 +1507,20 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>88</v>
       </c>
       <c r="F18">
@@ -1506,20 +1533,20 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>93</v>
       </c>
       <c r="F19">
@@ -1532,20 +1559,20 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>98</v>
       </c>
       <c r="F20">
@@ -1558,20 +1585,20 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>103</v>
       </c>
       <c r="F21">
@@ -1584,20 +1611,20 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>107</v>
       </c>
       <c r="F22">
@@ -1610,20 +1637,20 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>111</v>
       </c>
       <c r="F23">
@@ -1636,20 +1663,20 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="3" t="s">
         <v>115</v>
       </c>
       <c r="F24">
@@ -1662,20 +1689,20 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F25">
@@ -1688,20 +1715,20 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>123</v>
       </c>
       <c r="F26">
@@ -1714,20 +1741,20 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>127</v>
       </c>
       <c r="F27">
@@ -1740,20 +1767,20 @@
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F28">
@@ -1766,20 +1793,20 @@
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="3" t="s">
         <v>135</v>
       </c>
       <c r="F29">
@@ -1792,20 +1819,20 @@
         <v>280</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="3" t="s">
         <v>139</v>
       </c>
       <c r="F30">
@@ -1818,20 +1845,20 @@
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="3" t="s">
         <v>143</v>
       </c>
       <c r="F31">
@@ -1844,20 +1871,20 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F32">
@@ -1870,20 +1897,20 @@
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="3" t="s">
         <v>168</v>
       </c>
       <c r="F33">
@@ -1896,20 +1923,20 @@
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="3" t="s">
         <v>173</v>
       </c>
       <c r="F34">
@@ -1922,20 +1949,20 @@
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="3" t="s">
         <v>178</v>
       </c>
       <c r="F35">
@@ -1948,20 +1975,20 @@
         <v>340</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="3" t="s">
         <v>183</v>
       </c>
       <c r="F36">
@@ -1974,20 +2001,20 @@
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="3" t="s">
         <v>188</v>
       </c>
       <c r="F37">
@@ -2000,20 +2027,20 @@
         <v>360</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="3" t="s">
         <v>193</v>
       </c>
       <c r="F38">
@@ -2026,20 +2053,20 @@
         <v>370</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="3" t="s">
         <v>198</v>
       </c>
       <c r="F39">
@@ -2052,20 +2079,20 @@
         <v>380</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="3" t="s">
         <v>203</v>
       </c>
       <c r="F40">
@@ -2078,20 +2105,20 @@
         <v>390</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="3" t="s">
         <v>208</v>
       </c>
       <c r="F41">
@@ -2104,20 +2131,20 @@
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="3" t="s">
         <v>213</v>
       </c>
       <c r="F42">
@@ -2130,20 +2157,20 @@
         <v>410</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="3" t="s">
         <v>218</v>
       </c>
       <c r="F43">
@@ -2166,16 +2193,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="21.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>150</v>
       </c>
@@ -2195,7 +2222,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2215,7 +2242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2235,7 +2262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2255,7 +2282,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2275,7 +2302,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2295,7 +2322,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2315,7 +2342,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2335,7 +2362,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2355,7 +2382,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2375,7 +2402,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2395,7 +2422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2415,7 +2442,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2435,7 +2462,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2455,7 +2482,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2475,7 +2502,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2495,7 +2522,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2515,7 +2542,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2535,7 +2562,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2555,7 +2582,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2575,7 +2602,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2595,7 +2622,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -2615,7 +2642,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -2635,7 +2662,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -2655,7 +2682,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -2675,7 +2702,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -2695,7 +2722,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -2715,7 +2742,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -2735,7 +2762,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -2755,7 +2782,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -2775,7 +2802,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -2795,7 +2822,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>1</v>
       </c>
@@ -2815,7 +2842,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -2835,7 +2862,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2855,7 +2882,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2875,7 +2902,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2895,7 +2922,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2915,7 +2942,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2935,7 +2962,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2955,7 +2982,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2975,7 +3002,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2995,7 +3022,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3015,7 +3042,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>

--- a/數B第一冊單元分類.xlsx
+++ b/數B第一冊單元分類.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\math-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\math-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32910" windowHeight="14085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="14083"/>
   </bookViews>
   <sheets>
     <sheet name="skills_info" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="220">
   <si>
     <t>skill_id</t>
   </si>
@@ -682,6 +682,10 @@
   </si>
   <si>
     <t>分析學生答案：{user_answer}，正確答案：{correct_answer}，如果錯誤，提醒解分式方程式後需驗根，排除增根。</t>
+  </si>
+  <si>
+    <t>vertex_max_min</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1052,20 +1056,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="98.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="159.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.23046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.23046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="98.61328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="159.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1117,7 +1121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1143,7 +1147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -1169,7 +1173,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1195,7 +1199,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -1221,7 +1225,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -1247,7 +1251,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
@@ -1273,7 +1277,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
@@ -1299,7 +1303,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
@@ -1325,7 +1329,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>49</v>
       </c>
@@ -1351,7 +1355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>54</v>
       </c>
@@ -1377,7 +1381,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>59</v>
       </c>
@@ -1403,7 +1407,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>64</v>
       </c>
@@ -1429,8 +1433,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1455,9 +1459,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>74</v>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>75</v>
@@ -1481,8 +1485,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1507,8 +1511,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1533,8 +1537,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1559,8 +1563,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1585,8 +1589,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1611,8 +1615,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1637,8 +1641,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="4" t="s">
         <v>108</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1663,8 +1667,8 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1689,8 +1693,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1715,8 +1719,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1741,8 +1745,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1767,8 +1771,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1793,8 +1797,8 @@
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1819,8 +1823,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="4" t="s">
         <v>136</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1845,8 +1849,8 @@
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1871,8 +1875,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="4" t="s">
         <v>144</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1897,8 +1901,8 @@
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="4" t="s">
         <v>147</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1923,8 +1927,8 @@
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1949,8 +1953,8 @@
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="4" t="s">
         <v>174</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -1975,8 +1979,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="4" t="s">
         <v>179</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2001,8 +2005,8 @@
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="4" t="s">
         <v>184</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2027,8 +2031,8 @@
         <v>360</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="4" t="s">
         <v>189</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -2053,8 +2057,8 @@
         <v>370</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="4" t="s">
         <v>194</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -2079,8 +2083,8 @@
         <v>380</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="4" t="s">
         <v>199</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -2105,8 +2109,8 @@
         <v>390</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -2131,8 +2135,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="4" t="s">
         <v>209</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2157,8 +2161,8 @@
         <v>410</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="4" t="s">
         <v>214</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -2186,6 +2190,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2193,16 +2198,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>150</v>
       </c>
@@ -2222,7 +2227,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2242,7 +2247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2262,7 +2267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2282,7 +2287,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2302,7 +2307,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2322,7 +2327,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2342,7 +2347,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2362,7 +2367,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2382,7 +2387,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2402,7 +2407,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2422,7 +2427,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2442,7 +2447,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2462,7 +2467,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2482,7 +2487,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2502,7 +2507,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2522,7 +2527,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2542,7 +2547,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2562,7 +2567,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2582,7 +2587,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2602,7 +2607,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2622,7 +2627,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -2642,7 +2647,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -2662,7 +2667,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -2682,7 +2687,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -2702,7 +2707,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -2722,7 +2727,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -2742,7 +2747,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -2762,7 +2767,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -2782,7 +2787,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -2802,7 +2807,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -2822,7 +2827,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>1</v>
       </c>
@@ -2842,7 +2847,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -2862,7 +2867,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2882,7 +2887,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2902,7 +2907,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2922,7 +2927,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2942,7 +2947,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2962,7 +2967,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2982,7 +2987,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>1</v>
       </c>
@@ -3002,7 +3007,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3022,7 +3027,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3042,7 +3047,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>1</v>
       </c>
